--- a/CSCI_2020_TRANSCRIPT.xlsx
+++ b/CSCI_2020_TRANSCRIPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terre\Documents\Senior Project\AutoAdvisor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VSU Computer Science\Documents\autoadvisor-main v2\autoadvisor-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2197A0-D892-4EDA-8D76-92B1F4E37D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93868D12-2B03-477E-9A96-637C22F99CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{512055B1-4831-4ADE-89A2-67DFDBC3B196}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{512055B1-4831-4ADE-89A2-67DFDBC3B196}"/>
   </bookViews>
   <sheets>
     <sheet name="planning_sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="133">
   <si>
     <t>Course</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>STAT 330</t>
-  </si>
-  <si>
-    <t>MATH 261, CSCI 281</t>
   </si>
   <si>
     <t>CSCI 392</t>
@@ -493,9 +490,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -533,7 +530,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -639,7 +636,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -781,7 +778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -791,26 +788,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8CACD1-7A2B-42FB-A662-1A1D7F764097}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -824,10 +821,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -842,10 +839,10 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -865,7 +862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -885,7 +882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -905,7 +902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -925,7 +922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -942,10 +939,10 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -962,7 +959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -985,7 +982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -1008,7 +1005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -1051,10 +1048,10 @@
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1071,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1091,10 +1088,10 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1114,10 +1111,10 @@
         <v>3</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1182,7 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
@@ -1200,7 +1197,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1226,7 +1223,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +1243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1263,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -1286,7 +1283,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1326,41 +1323,41 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
         <v>77</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
         <v>78</v>
       </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="H25" t="s">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>81</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -1372,15 +1369,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
         <v>83</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -1392,7 +1389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>10</v>
       </c>
@@ -1412,13 +1409,13 @@
         <v>69</v>
       </c>
       <c r="K28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>10</v>
       </c>
@@ -1438,24 +1435,24 @@
         <v>68</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -1467,21 +1464,21 @@
         <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
         <v>88</v>
-      </c>
-      <c r="D31" t="s">
-        <v>89</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -1493,35 +1490,35 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
         <v>90</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
         <v>91</v>
       </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="H32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -1533,18 +1530,18 @@
         <v>60</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
         <v>54</v>
@@ -1553,19 +1550,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
         <v>94</v>
       </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>95</v>
       </c>
-      <c r="D35" t="s">
-        <v>96</v>
-      </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
@@ -1573,18 +1570,18 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -1596,18 +1593,18 @@
         <v>48</v>
       </c>
       <c r="K36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
         <v>54</v>
@@ -1616,15 +1613,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
         <v>102</v>
-      </c>
-      <c r="D38" t="s">
-        <v>103</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -1636,15 +1633,15 @@
         <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
         <v>67</v>
@@ -1656,21 +1653,21 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
         <v>66</v>
@@ -1682,28 +1679,28 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
         <v>107</v>
       </c>
-      <c r="D41" t="s">
-        <v>108</v>
-      </c>
       <c r="E41" t="s">
         <v>7</v>
       </c>
@@ -1711,21 +1708,21 @@
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -1737,18 +1734,18 @@
         <v>48</v>
       </c>
       <c r="K42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" t="s">
         <v>110</v>
-      </c>
-      <c r="D43" t="s">
-        <v>111</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -1760,16 +1757,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
         <v>112</v>
       </c>
-      <c r="D44" t="s">
-        <v>113</v>
-      </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
@@ -1777,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/CSCI_2020_TRANSCRIPT.xlsx
+++ b/CSCI_2020_TRANSCRIPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VSU Computer Science\Documents\autoadvisor-main v2\autoadvisor-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93868D12-2B03-477E-9A96-637C22F99CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CBCCD5-716A-4D21-8D9D-58C7ADE930D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{512055B1-4831-4ADE-89A2-67DFDBC3B196}"/>
+    <workbookView xWindow="14895" yWindow="2175" windowWidth="16410" windowHeight="15345" xr2:uid="{512055B1-4831-4ADE-89A2-67DFDBC3B196}"/>
   </bookViews>
   <sheets>
     <sheet name="planning_sheet" sheetId="1" r:id="rId1"/>
@@ -392,9 +392,6 @@
     <t>MATH 325, MATH 340, MATH 348, MATH 350, MATH 360, MATH 392, MATH 425</t>
   </si>
   <si>
-    <t>CSCI 312, CSCI 361, CSCI 389, CSCI 396, CSCI 402, CSCI 450, CSCI 451, CSCI 453, CSCI 495, CSCI 496, MATH 325, MATH 340, MATH 348, MATH 350, MATH 360, MATH 392, MATH 425, STAT 380</t>
-  </si>
-  <si>
     <t>SOCI, PSYC, CJUS 116</t>
   </si>
   <si>
@@ -431,10 +428,13 @@
     <t>BIOL 120, BIOL 121, BIOL 318, CHEM 153, CHEM 154, PHYS 105, PHYS 106, PHYS 112, PHYS 113</t>
   </si>
   <si>
-    <t>CSCI 312, CSCI 361, CSCI 389, CSCI 396, CSCI 402, CSCI 450, CSCI 451, CSCI 453, CSCI 460, CSCI 495, CSCI 496</t>
-  </si>
-  <si>
     <t>CSCI 287, CSCI 303</t>
+  </si>
+  <si>
+    <t>CSCI 312, CSCI 361, CSCI 389, CSCI 396, CSCI 402, CSCI 450, CSCI 451, CSCI 453, CSCI 457, CSCI 495, CSCI 496, MATH 325, MATH 340, MATH 348, MATH 350, MATH 360, MATH 392, MATH 425, STAT 380</t>
+  </si>
+  <si>
+    <t>CSCI 312, CSCI 361, CSCI 389, CSCI 396, CSCI 402, CSCI 450, CSCI 451, CSCI 453, CSCI 457, CSCI 460, CSCI 495, CSCI 496</t>
   </si>
 </sst>
 </file>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8CACD1-7A2B-42FB-A662-1A1D7F764097}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1409,10 +1409,10 @@
         <v>69</v>
       </c>
       <c r="K28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1435,10 +1435,10 @@
         <v>68</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1464,10 +1464,10 @@
         <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1530,7 +1530,7 @@
         <v>60</v>
       </c>
       <c r="H33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1593,7 +1593,7 @@
         <v>48</v>
       </c>
       <c r="K36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
         <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1656,10 +1656,10 @@
         <v>104</v>
       </c>
       <c r="K39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1682,10 +1682,10 @@
         <v>103</v>
       </c>
       <c r="K40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>117</v>
       </c>
       <c r="L41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
         <v>48</v>
       </c>
       <c r="K42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
